--- a/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{507A88C3-9BC6-412F-B752-87C8F4FFC148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C59333-1B19-4C7B-956E-FE566AD8436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9278F96B-1DA1-42A1-B160-90DA361588FD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69BD1BEE-AB2E-463A-A9F7-F55A6D400157}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>82,1%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>15,31%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>20,41%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>74,6%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>79,59%</t>
   </si>
   <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1717 +197,1717 @@
     <t>21,47%</t>
   </si>
   <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>26,94%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>73,06%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>13,68%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>12,06%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>86,32%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>72,14%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6AE52-29C9-44B7-A41C-117AF5D980DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9497581-E84A-4E3A-8410-E7B0F8F59F12}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2941,10 +2941,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2959,13 @@
         <v>284065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -2974,13 +2974,13 @@
         <v>267697</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>560</v>
@@ -2989,13 +2989,13 @@
         <v>551762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3063,13 +3063,13 @@
         <v>34772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3078,13 +3078,13 @@
         <v>42041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -3093,13 +3093,13 @@
         <v>76813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3114,13 @@
         <v>168536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -3129,13 +3129,13 @@
         <v>165627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -3144,13 +3144,13 @@
         <v>334163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3218,13 +3218,13 @@
         <v>58539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -3233,13 +3233,13 @@
         <v>87395</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -3248,13 +3248,13 @@
         <v>145934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3269,13 @@
         <v>212272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -3284,13 +3284,13 @@
         <v>189808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -3299,13 +3299,13 @@
         <v>402080</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3373,13 @@
         <v>110211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3388,13 +3388,13 @@
         <v>168706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3403,13 +3403,13 @@
         <v>278917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3424,13 @@
         <v>503931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -3439,13 +3439,13 @@
         <v>469513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>947</v>
@@ -3454,13 +3454,13 @@
         <v>973444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3516,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3528,13 @@
         <v>98817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -3543,13 +3543,13 @@
         <v>152033</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -3558,13 +3558,13 @@
         <v>250850</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3579,13 @@
         <v>644978</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>602</v>
@@ -3594,13 +3594,13 @@
         <v>631478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1241</v>
@@ -3609,13 +3609,13 @@
         <v>1276456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3683,13 @@
         <v>560346</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>803</v>
@@ -3698,13 +3698,13 @@
         <v>824009</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1352</v>
@@ -3713,13 +3713,13 @@
         <v>1384355</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3734,13 @@
         <v>2715312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2493</v>
@@ -3749,13 +3749,13 @@
         <v>2554248</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5157</v>
@@ -3764,13 +3764,13 @@
         <v>5269561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE368B-78E8-4337-8D89-607DFCA98CB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E5FAB-BFBD-4D01-9109-54AC74C4C7D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4111,13 @@
         <v>131306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -4126,13 +4126,13 @@
         <v>199201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>308</v>
@@ -4141,13 +4141,13 @@
         <v>330508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4162,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4177,13 +4177,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -4192,13 +4192,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4266,13 @@
         <v>76522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4281,13 +4281,13 @@
         <v>96258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4296,13 +4296,13 @@
         <v>172780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4317,13 @@
         <v>247524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4332,13 +4332,13 @@
         <v>244762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -4347,13 +4347,13 @@
         <v>492286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4421,13 @@
         <v>181572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -4436,13 +4436,13 @@
         <v>215431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>369</v>
@@ -4451,13 +4451,13 @@
         <v>397002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4472,13 @@
         <v>486421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4487,13 +4487,13 @@
         <v>458628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>881</v>
@@ -4502,13 +4502,13 @@
         <v>945050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4576,13 @@
         <v>36867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4591,13 +4591,13 @@
         <v>78914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4606,13 +4606,13 @@
         <v>115781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4627,13 @@
         <v>175751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4642,13 +4642,13 @@
         <v>140677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -4657,13 +4657,13 @@
         <v>316428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4731,13 +4731,13 @@
         <v>64279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4746,13 +4746,13 @@
         <v>96148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -4761,13 +4761,13 @@
         <v>160428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4782,13 @@
         <v>209702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -4797,13 +4797,13 @@
         <v>183883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -4812,13 +4812,13 @@
         <v>393584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,13 +4886,13 @@
         <v>146687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4901,13 +4901,13 @@
         <v>186931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4916,13 +4916,13 @@
         <v>333618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4937,13 @@
         <v>516101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>462</v>
@@ -4952,13 +4952,13 @@
         <v>506922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4967,13 +4967,13 @@
         <v>1023023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5029,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5041,13 +5041,13 @@
         <v>69324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -5056,13 +5056,13 @@
         <v>106589</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -5071,13 +5071,13 @@
         <v>175913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5092,13 @@
         <v>707820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -5107,13 +5107,13 @@
         <v>716295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1317</v>
@@ -5122,13 +5122,13 @@
         <v>1424115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>706558</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
@@ -5211,13 +5211,13 @@
         <v>979473</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="M28" s="7">
         <v>1571</v>
@@ -5226,13 +5226,13 @@
         <v>1686030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5247,13 @@
         <v>2717540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>2387</v>
@@ -5262,28 +5262,28 @@
         <v>2575731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>4930</v>
       </c>
       <c r="N29" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5325,7 @@
         <v>6501</v>
       </c>
       <c r="N30" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08218D7-EBE7-49A1-B61B-AC55D612CC03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2B3F-925D-48EB-BCF5-A82F8791D519}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5487,13 @@
         <v>83698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -5502,13 +5502,13 @@
         <v>104120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5517,13 +5517,13 @@
         <v>187818</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5538,13 @@
         <v>210063</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5553,13 +5553,13 @@
         <v>182764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5568,13 +5568,13 @@
         <v>392827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5642,13 @@
         <v>83667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -5657,13 +5657,13 @@
         <v>110000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -5672,13 +5672,13 @@
         <v>193667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5693,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5708,13 +5708,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -5723,13 +5723,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5797,13 @@
         <v>37265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5812,13 +5812,13 @@
         <v>47283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -5827,13 +5827,13 @@
         <v>84548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5848,13 @@
         <v>275849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -5863,13 +5863,13 @@
         <v>286525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5878,13 +5878,13 @@
         <v>562374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>97356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5967,13 +5967,13 @@
         <v>125414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -5982,13 +5982,13 @@
         <v>222770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>269650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -6018,13 +6018,13 @@
         <v>261869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -6033,13 +6033,13 @@
         <v>531519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,7 +6095,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6107,13 +6107,13 @@
         <v>26355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6122,13 +6122,13 @@
         <v>30534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6137,13 +6137,13 @@
         <v>56889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6158,13 @@
         <v>182609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6173,13 +6173,13 @@
         <v>187185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -6188,10 +6188,10 @@
         <v>369795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>405</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6280,10 +6280,10 @@
         <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6292,13 +6292,13 @@
         <v>134117</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6313,13 @@
         <v>205380</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -6328,13 +6328,13 @@
         <v>196741</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>393</v>
@@ -6343,13 +6343,13 @@
         <v>402121</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6417,13 @@
         <v>75317</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -6432,13 +6432,13 @@
         <v>124978</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -6450,10 +6450,10 @@
         <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6468,13 @@
         <v>581241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>29</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6483,13 +6483,13 @@
         <v>565045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>60</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -6498,13 +6498,13 @@
         <v>1146286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6560,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6572,13 @@
         <v>103187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -6587,13 +6587,13 @@
         <v>142778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -6602,13 +6602,13 @@
         <v>245965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6623,13 @@
         <v>675396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -6638,13 +6638,13 @@
         <v>683389</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -6653,13 +6653,13 @@
         <v>1358785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6727,13 @@
         <v>564590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>708</v>
@@ -6742,13 +6742,13 @@
         <v>761480</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>1238</v>
@@ -6757,13 +6757,13 @@
         <v>1326069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6778,13 @@
         <v>2819094</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>2625</v>
@@ -6793,13 +6793,13 @@
         <v>2776603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="M29" s="7">
         <v>5316</v>
@@ -6808,13 +6808,13 @@
         <v>5595699</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F901B331-DBB0-4E9B-9737-52DB79A50FA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84257D66-9ED7-47E0-9F69-32AFCD7167E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7018,13 @@
         <v>89862</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7033,13 +7033,13 @@
         <v>106625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>310</v>
@@ -7048,13 +7048,13 @@
         <v>196486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7069,13 @@
         <v>170436</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -7084,13 +7084,13 @@
         <v>164778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
@@ -7099,13 +7099,13 @@
         <v>335214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7173,13 @@
         <v>78638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -7188,13 +7188,13 @@
         <v>111597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -7203,13 +7203,13 @@
         <v>190235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7224,13 @@
         <v>440659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -7239,13 +7239,13 @@
         <v>442026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -7254,13 +7254,13 @@
         <v>882685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7328,13 @@
         <v>73481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -7343,13 +7343,13 @@
         <v>120041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -7358,13 +7358,13 @@
         <v>193523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7379,13 @@
         <v>248759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>369</v>
@@ -7394,13 +7394,13 @@
         <v>252639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -7409,13 +7409,13 @@
         <v>501397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7483,13 @@
         <v>79725</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -7498,13 +7498,13 @@
         <v>100599</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -7513,13 +7513,13 @@
         <v>180324</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7534,13 @@
         <v>240576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -7549,13 +7549,13 @@
         <v>327957</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>689</v>
@@ -7564,13 +7564,13 @@
         <v>568533</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7638,13 +7638,13 @@
         <v>19226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7653,13 +7653,13 @@
         <v>11144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7668,13 +7668,13 @@
         <v>30370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7689,13 @@
         <v>177522</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7704,13 +7704,13 @@
         <v>220759</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -7719,13 +7719,13 @@
         <v>398281</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7793,13 +7793,13 @@
         <v>71152</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
@@ -7808,13 +7808,13 @@
         <v>81630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -7823,13 +7823,13 @@
         <v>152782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7844,13 @@
         <v>206071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -7859,13 +7859,13 @@
         <v>193992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>588</v>
@@ -7874,13 +7874,13 @@
         <v>400063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7948,13 @@
         <v>168247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -7963,13 +7963,13 @@
         <v>353585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>485</v>
@@ -7978,13 +7978,13 @@
         <v>521832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7999,13 @@
         <v>459507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>628</v>
@@ -8014,13 +8014,13 @@
         <v>445814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>1070</v>
@@ -8029,13 +8029,13 @@
         <v>905321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8091,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8103,13 @@
         <v>105738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -8118,13 +8118,13 @@
         <v>136542</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
@@ -8133,13 +8133,13 @@
         <v>242280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8154,13 @@
         <v>753690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>898</v>
@@ -8169,13 +8169,13 @@
         <v>728496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M26" s="7">
         <v>1563</v>
@@ -8184,10 +8184,10 @@
         <v>1482186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>608</v>
@@ -8258,13 +8258,13 @@
         <v>686068</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="H28" s="7">
         <v>1313</v>
@@ -8273,13 +8273,13 @@
         <v>1021764</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>2008</v>
@@ -8288,10 +8288,10 @@
         <v>1707832</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>615</v>
@@ -8309,13 +8309,13 @@
         <v>2697221</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>4043</v>
@@ -8324,13 +8324,13 @@
         <v>2776461</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>6723</v>
@@ -8339,13 +8339,13 @@
         <v>5473682</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43C59333-1B19-4C7B-956E-FE566AD8436A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D20B59-0D64-4436-81BE-080B3EF1E2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69BD1BEE-AB2E-463A-A9F7-F55A6D400157}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28887D44-1558-40B4-B9B0-BD55CFA81F59}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1816 +77,1810 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>79,72%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
   </si>
   <si>
     <t>78,06%</t>
@@ -2319,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9497581-E84A-4E3A-8410-E7B0F8F59F12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E606C43F-76E4-4C05-AA03-9518E4574D4F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3236,10 +3230,10 @@
         <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -3248,13 +3242,13 @@
         <v>145934</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3263,13 @@
         <v>212272</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -3284,13 +3278,13 @@
         <v>189808</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -3299,13 +3293,13 @@
         <v>402080</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3355,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3367,13 @@
         <v>110211</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3388,13 +3382,13 @@
         <v>168706</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3403,13 +3397,13 @@
         <v>278917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3418,13 @@
         <v>503931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -3439,13 +3433,13 @@
         <v>469513</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>947</v>
@@ -3454,13 +3448,13 @@
         <v>973444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3528,13 +3522,13 @@
         <v>98817</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>143</v>
@@ -3543,13 +3537,13 @@
         <v>152033</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>240</v>
@@ -3558,13 +3552,13 @@
         <v>250850</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3573,13 @@
         <v>644978</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>602</v>
@@ -3594,13 +3588,13 @@
         <v>631478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1241</v>
@@ -3609,13 +3603,13 @@
         <v>1276456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>560346</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>803</v>
@@ -3698,13 +3692,13 @@
         <v>824009</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1352</v>
@@ -3713,13 +3707,13 @@
         <v>1384355</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3728,13 @@
         <v>2715312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>2493</v>
@@ -3749,13 +3743,13 @@
         <v>2554248</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>5157</v>
@@ -3764,13 +3758,13 @@
         <v>5269561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5E5FAB-BFBD-4D01-9109-54AC74C4C7D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B75F5E-2F79-4E09-8A9B-B5059B0173F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4105,13 @@
         <v>131306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -4126,13 +4120,13 @@
         <v>199201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>308</v>
@@ -4141,13 +4135,13 @@
         <v>330508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4156,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4177,13 +4171,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -4192,13 +4186,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4260,13 @@
         <v>76522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4281,13 +4275,13 @@
         <v>96258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4296,13 +4290,13 @@
         <v>172780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4311,13 @@
         <v>247524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4332,13 +4326,13 @@
         <v>244762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -4347,13 +4341,13 @@
         <v>492286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4415,13 @@
         <v>181572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -4436,13 +4430,13 @@
         <v>215431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>369</v>
@@ -4451,13 +4445,13 @@
         <v>397002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4466,13 @@
         <v>486421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4487,13 +4481,13 @@
         <v>458628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>881</v>
@@ -4502,13 +4496,13 @@
         <v>945050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4570,13 @@
         <v>36867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4591,13 +4585,13 @@
         <v>78914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4606,13 +4600,13 @@
         <v>115781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4621,13 @@
         <v>175751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4642,13 +4636,13 @@
         <v>140677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -4657,13 +4651,13 @@
         <v>316428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4725,13 @@
         <v>64279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4746,13 +4740,13 @@
         <v>96148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -4761,13 +4755,13 @@
         <v>160428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>209702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -4797,13 +4791,13 @@
         <v>183883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -4812,13 +4806,13 @@
         <v>393584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4868,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4886,13 +4880,13 @@
         <v>146687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4901,13 +4895,13 @@
         <v>186931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4916,13 +4910,13 @@
         <v>333618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4931,13 @@
         <v>516101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>462</v>
@@ -4952,13 +4946,13 @@
         <v>506922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4967,13 +4961,13 @@
         <v>1023023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5041,13 +5035,13 @@
         <v>69324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -5056,13 +5050,13 @@
         <v>106589</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -5071,13 +5065,13 @@
         <v>175913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5086,13 @@
         <v>707820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -5107,13 +5101,13 @@
         <v>716295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1317</v>
@@ -5122,13 +5116,13 @@
         <v>1424115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,28 +5190,28 @@
         <v>706558</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>979473</v>
+        <v>979472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1571</v>
@@ -5226,13 +5220,13 @@
         <v>1686030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5241,13 @@
         <v>2717540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>2387</v>
@@ -5262,28 +5256,28 @@
         <v>2575731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>4930</v>
       </c>
       <c r="N29" s="7">
-        <v>5293271</v>
+        <v>5293272</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5304,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5325,7 +5319,7 @@
         <v>6501</v>
       </c>
       <c r="N30" s="7">
-        <v>6979301</v>
+        <v>6979302</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5339,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DB2B3F-925D-48EB-BCF5-A82F8791D519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643FA51E-2553-469A-A5BF-D50743A125AD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5481,13 @@
         <v>83698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -5502,13 +5496,13 @@
         <v>104120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5517,13 +5511,13 @@
         <v>187818</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5532,13 @@
         <v>210063</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5553,13 +5547,13 @@
         <v>182764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5568,13 +5562,13 @@
         <v>392827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5636,13 @@
         <v>83667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -5657,13 +5651,13 @@
         <v>110000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -5672,13 +5666,13 @@
         <v>193667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5687,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5708,13 +5702,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -5723,13 +5717,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5791,13 @@
         <v>37265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5812,13 +5806,13 @@
         <v>47283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -5827,13 +5821,13 @@
         <v>84548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5842,13 @@
         <v>275849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -5863,13 +5857,13 @@
         <v>286525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5878,13 +5872,13 @@
         <v>562374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5946,13 @@
         <v>97356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5967,13 +5961,13 @@
         <v>125414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -5982,13 +5976,13 @@
         <v>222770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5997,13 @@
         <v>269650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -6018,13 +6012,13 @@
         <v>261869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -6033,13 +6027,13 @@
         <v>531519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6101,13 @@
         <v>26355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6122,13 +6116,13 @@
         <v>30534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6137,13 +6131,13 @@
         <v>56889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6152,13 @@
         <v>182609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6173,13 +6167,13 @@
         <v>187185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -6188,13 +6182,13 @@
         <v>369795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6256,13 @@
         <v>57743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -6277,13 +6271,13 @@
         <v>76374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6292,13 +6286,13 @@
         <v>134117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6307,13 @@
         <v>205380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -6328,13 +6322,13 @@
         <v>196741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>393</v>
@@ -6343,13 +6337,13 @@
         <v>402121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6399,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6411,13 @@
         <v>75317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -6432,13 +6426,13 @@
         <v>124978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -6447,13 +6441,13 @@
         <v>200295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6462,13 @@
         <v>581241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6483,13 +6477,13 @@
         <v>565045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -6498,13 +6492,13 @@
         <v>1146286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6572,13 +6566,13 @@
         <v>103187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -6587,13 +6581,13 @@
         <v>142778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -6602,13 +6596,13 @@
         <v>245965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6617,13 @@
         <v>675396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -6638,13 +6632,13 @@
         <v>683389</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -6653,13 +6647,13 @@
         <v>1358785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6721,13 @@
         <v>564590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>708</v>
@@ -6742,13 +6736,13 @@
         <v>761480</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1238</v>
@@ -6757,13 +6751,13 @@
         <v>1326069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6772,13 @@
         <v>2819094</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2625</v>
@@ -6793,13 +6787,13 @@
         <v>2776603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>5316</v>
@@ -6808,13 +6802,13 @@
         <v>5595699</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84257D66-9ED7-47E0-9F69-32AFCD7167E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C35FC75-7BE1-4A7A-8B14-9E669A0A3274}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7012,13 @@
         <v>89862</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7033,13 +7027,13 @@
         <v>106625</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>310</v>
@@ -7048,13 +7042,13 @@
         <v>196486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7063,13 @@
         <v>170436</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -7084,13 +7078,13 @@
         <v>164778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
@@ -7099,13 +7093,13 @@
         <v>335214</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7167,13 @@
         <v>78638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -7188,13 +7182,13 @@
         <v>111597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -7203,13 +7197,13 @@
         <v>190235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7218,13 @@
         <v>440659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -7239,13 +7233,13 @@
         <v>442026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -7254,13 +7248,13 @@
         <v>882685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>502</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7322,13 @@
         <v>73481</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -7343,13 +7337,13 @@
         <v>120041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
@@ -7358,13 +7352,13 @@
         <v>193523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7373,13 @@
         <v>248759</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H11" s="7">
         <v>369</v>
@@ -7394,13 +7388,13 @@
         <v>252639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -7409,13 +7403,13 @@
         <v>501397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>521</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7477,13 @@
         <v>79725</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -7498,13 +7492,13 @@
         <v>100599</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -7513,13 +7507,13 @@
         <v>180324</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7528,13 @@
         <v>240576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -7549,13 +7543,13 @@
         <v>327957</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>689</v>
@@ -7564,13 +7558,13 @@
         <v>568533</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7632,13 @@
         <v>19226</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7653,13 +7647,13 @@
         <v>11144</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7668,13 +7662,13 @@
         <v>30370</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7683,13 @@
         <v>177522</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7704,13 +7698,13 @@
         <v>220759</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -7719,13 +7713,13 @@
         <v>398281</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7787,13 @@
         <v>71152</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
@@ -7808,13 +7802,13 @@
         <v>81630</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -7823,13 +7817,13 @@
         <v>152782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7838,13 @@
         <v>206071</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -7859,13 +7853,13 @@
         <v>193992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>588</v>
@@ -7874,13 +7868,13 @@
         <v>400063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,7 +7930,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7948,13 +7942,13 @@
         <v>168247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -7963,13 +7957,13 @@
         <v>353585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M22" s="7">
         <v>485</v>
@@ -7978,13 +7972,13 @@
         <v>521832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7993,13 @@
         <v>459507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H23" s="7">
         <v>628</v>
@@ -8014,13 +8008,13 @@
         <v>445814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>1070</v>
@@ -8029,13 +8023,13 @@
         <v>905321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8103,13 +8097,13 @@
         <v>105738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -8118,13 +8112,13 @@
         <v>136542</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
@@ -8133,13 +8127,13 @@
         <v>242280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8148,13 @@
         <v>753690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7">
         <v>898</v>
@@ -8169,13 +8163,13 @@
         <v>728496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>1563</v>
@@ -8184,13 +8178,13 @@
         <v>1482186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8252,13 @@
         <v>686068</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>605</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>95</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H28" s="7">
         <v>1313</v>
@@ -8273,13 +8267,13 @@
         <v>1021764</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M28" s="7">
         <v>2008</v>
@@ -8288,13 +8282,13 @@
         <v>1707832</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,10 +8303,10 @@
         <v>2697221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>104</v>
@@ -8324,13 +8318,13 @@
         <v>2776461</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>6723</v>
@@ -8339,13 +8333,13 @@
         <v>5473682</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D20B59-0D64-4436-81BE-080B3EF1E2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD36AD67-975B-4406-8637-EC07F0BE1E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28887D44-1558-40B4-B9B0-BD55CFA81F59}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A31E0AC8-93EB-4EF5-865C-50E170646F46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,175 +77,175 @@
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
   </si>
   <si>
     <t>17,9%</t>
   </si>
   <si>
-    <t>14,84%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1432 +254,1426 @@
     <t>20,8%</t>
   </si>
   <si>
-    <t>16,74%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>74,99%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>24,89%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>28,1%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>75,11%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>68,05%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>7,09%</t>
@@ -1688,31 +1682,31 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>10,23%</t>
+    <t>9,75%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>95,19%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>89,77%</t>
+    <t>90,25%</t>
   </si>
   <si>
     <t>94,71%</t>
@@ -1721,187 +1715,199 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
     <t>26,8%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>64,81%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
   <si>
     <t>73,2%</t>
   </si>
   <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>77,07%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>35,19%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>63,44%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
-    <t>12,06%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>87,94%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>21,94%</t>
+    <t>21,79%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>27,86%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>78,06%</t>
+    <t>78,21%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
+    <t>72,14%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E606C43F-76E4-4C05-AA03-9518E4574D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD201AFE-60E6-4E1F-A876-50087548A47E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2935,10 +2941,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>284065</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -2968,13 +2974,13 @@
         <v>267697</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>560</v>
@@ -2983,13 +2989,13 @@
         <v>551762</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,7 +3051,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3057,13 +3063,13 @@
         <v>34772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3072,13 +3078,13 @@
         <v>42041</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -3087,13 +3093,13 @@
         <v>76813</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>168536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>158</v>
@@ -3123,13 +3129,13 @@
         <v>165627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>328</v>
@@ -3138,13 +3144,13 @@
         <v>334163</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3206,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3212,13 +3218,13 @@
         <v>58539</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -3227,13 +3233,13 @@
         <v>87395</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -3242,13 +3248,13 @@
         <v>145934</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3269,13 @@
         <v>212272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>186</v>
@@ -3278,13 +3284,13 @@
         <v>189808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -3293,13 +3299,13 @@
         <v>402080</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3373,13 @@
         <v>110211</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -3382,13 +3388,13 @@
         <v>168706</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>271</v>
@@ -3397,13 +3403,13 @@
         <v>278917</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3424,13 @@
         <v>503931</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H23" s="7">
         <v>457</v>
@@ -3713,7 +3719,7 @@
         <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3734,13 @@
         <v>2715312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2493</v>
@@ -3743,13 +3749,13 @@
         <v>2554248</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5157</v>
@@ -3758,13 +3764,13 @@
         <v>5269561</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B75F5E-2F79-4E09-8A9B-B5059B0173F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6364D14-616D-40B5-959F-1719C99D4A98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4111,13 @@
         <v>131306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -4120,13 +4126,13 @@
         <v>199201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>308</v>
@@ -4135,13 +4141,13 @@
         <v>330508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4162,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4171,13 +4177,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -4186,13 +4192,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4266,13 @@
         <v>76522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4275,13 +4281,13 @@
         <v>96258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4290,13 +4296,13 @@
         <v>172780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4317,13 @@
         <v>247524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4326,13 +4332,13 @@
         <v>244762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -4341,13 +4347,13 @@
         <v>492286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4421,13 @@
         <v>181572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -4430,13 +4436,13 @@
         <v>215431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>369</v>
@@ -4445,13 +4451,13 @@
         <v>397002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4472,13 @@
         <v>486421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -4496,13 +4502,13 @@
         <v>945050</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4564,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4576,7 +4582,7 @@
         <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4585,13 +4591,13 @@
         <v>78914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4600,13 +4606,13 @@
         <v>115781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4627,13 @@
         <v>175751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4636,13 +4642,13 @@
         <v>140677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -4651,13 +4657,13 @@
         <v>316428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4719,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4725,13 +4731,13 @@
         <v>64279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4740,13 +4746,13 @@
         <v>96148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -4755,13 +4761,13 @@
         <v>160428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4782,13 @@
         <v>209702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -4791,13 +4797,13 @@
         <v>183883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -4806,13 +4812,13 @@
         <v>393584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4874,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4880,13 +4886,13 @@
         <v>146687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4895,13 +4901,13 @@
         <v>186931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4910,13 +4916,13 @@
         <v>333618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4937,13 @@
         <v>516101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>462</v>
@@ -4946,7 +4952,7 @@
         <v>506922</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>276</v>
@@ -5202,7 +5208,7 @@
         <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>979472</v>
+        <v>979473</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>302</v>
@@ -5223,10 +5229,10 @@
         <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5247,13 @@
         <v>2717540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>2387</v>
@@ -5256,13 +5262,13 @@
         <v>2575731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>4930</v>
@@ -5271,13 +5277,13 @@
         <v>5293272</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,7 +5310,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643FA51E-2553-469A-A5BF-D50743A125AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602058D8-077E-424C-A6F4-51D0D37EE7E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5487,13 @@
         <v>83698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -5496,13 +5502,13 @@
         <v>104120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5511,13 +5517,13 @@
         <v>187818</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5538,13 @@
         <v>210063</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5547,13 +5553,13 @@
         <v>182764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5562,7 +5568,7 @@
         <v>392827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>332</v>
@@ -5657,7 +5663,7 @@
         <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -5666,13 +5672,13 @@
         <v>193667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5693,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5702,13 +5708,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -5717,13 +5723,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5797,13 @@
         <v>37265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5806,13 +5812,13 @@
         <v>47283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -5821,13 +5827,13 @@
         <v>84548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5848,13 @@
         <v>275849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -5857,13 +5863,13 @@
         <v>286525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5872,13 +5878,13 @@
         <v>562374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5952,13 @@
         <v>97356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5961,13 +5967,13 @@
         <v>125414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -5976,13 +5982,13 @@
         <v>222770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6003,13 @@
         <v>269650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -6012,13 +6018,13 @@
         <v>261869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -6027,13 +6033,13 @@
         <v>531519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,7 +6095,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6101,13 +6107,13 @@
         <v>26355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6116,13 +6122,13 @@
         <v>30534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6131,13 +6137,13 @@
         <v>56889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6158,13 @@
         <v>182609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6167,13 +6173,13 @@
         <v>187185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -6182,13 +6188,13 @@
         <v>369795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,7 +6250,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6256,13 +6262,13 @@
         <v>57743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -6271,13 +6277,13 @@
         <v>76374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6286,13 +6292,13 @@
         <v>134117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6313,13 @@
         <v>205380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -6322,13 +6328,13 @@
         <v>196741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>393</v>
@@ -6337,13 +6343,13 @@
         <v>402121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6405,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6411,13 +6417,13 @@
         <v>75317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -6426,13 +6432,13 @@
         <v>124978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>51</v>
       </c>
       <c r="M22" s="7">
         <v>178</v>
@@ -6441,13 +6447,13 @@
         <v>200295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6468,13 @@
         <v>581241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6477,13 +6483,13 @@
         <v>565045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -6492,13 +6498,13 @@
         <v>1146286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6572,13 @@
         <v>103187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -6581,13 +6587,13 @@
         <v>142778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -6596,13 +6602,13 @@
         <v>245965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6623,13 @@
         <v>675396</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -6632,13 +6638,13 @@
         <v>683389</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -6647,13 +6653,13 @@
         <v>1358785</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6727,13 @@
         <v>564590</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>708</v>
@@ -6736,13 +6742,13 @@
         <v>761480</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1238</v>
@@ -6751,13 +6757,13 @@
         <v>1326069</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6778,13 @@
         <v>2819094</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2625</v>
@@ -6787,13 +6793,13 @@
         <v>2776603</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>5316</v>
@@ -6802,13 +6808,13 @@
         <v>5595699</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C35FC75-7BE1-4A7A-8B14-9E669A0A3274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23C9AE7-2CE8-44F3-A8CF-0DE20E6F909E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7018,13 @@
         <v>89862</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7027,13 +7033,13 @@
         <v>106625</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>310</v>
@@ -7042,13 +7048,13 @@
         <v>196486</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7069,13 @@
         <v>170436</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -7078,13 +7084,13 @@
         <v>164778</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
@@ -7093,13 +7099,13 @@
         <v>335214</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7173,13 @@
         <v>78638</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -7182,13 +7188,13 @@
         <v>111597</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -7197,13 +7203,13 @@
         <v>190235</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7224,13 @@
         <v>440659</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -7233,7 +7239,7 @@
         <v>442026</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>500</v>
@@ -7492,13 +7498,13 @@
         <v>100599</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -7507,13 +7513,13 @@
         <v>180324</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7534,13 @@
         <v>240576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
@@ -7543,13 +7549,13 @@
         <v>327957</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>689</v>
@@ -7558,13 +7564,13 @@
         <v>568533</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,7 +7626,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7632,13 +7638,13 @@
         <v>19226</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7647,13 +7653,13 @@
         <v>11144</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7662,13 +7668,13 @@
         <v>30370</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7689,13 @@
         <v>177522</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
@@ -7698,13 +7704,13 @@
         <v>220759</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
@@ -7713,13 +7719,13 @@
         <v>398281</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,7 +7781,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7787,13 +7793,13 @@
         <v>71152</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
@@ -7802,13 +7808,13 @@
         <v>81630</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -7817,13 +7823,13 @@
         <v>152782</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,10 +7877,10 @@
         <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7936,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7942,13 +7948,13 @@
         <v>168247</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -7957,13 +7963,13 @@
         <v>353585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>578</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M22" s="7">
         <v>485</v>
@@ -7972,13 +7978,13 @@
         <v>521832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7999,13 @@
         <v>459507</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>582</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>628</v>
@@ -8008,13 +8014,13 @@
         <v>445814</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>1070</v>
@@ -8023,13 +8029,13 @@
         <v>905321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8103,13 @@
         <v>105738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -8112,13 +8118,13 @@
         <v>136542</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
@@ -8127,13 +8133,13 @@
         <v>242280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8154,13 @@
         <v>753690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>898</v>
@@ -8163,13 +8169,13 @@
         <v>728496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>1563</v>
@@ -8178,13 +8184,13 @@
         <v>1482186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8258,13 @@
         <v>686068</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>393</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H28" s="7">
         <v>1313</v>
@@ -8267,13 +8273,13 @@
         <v>1021764</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>2008</v>
@@ -8282,13 +8288,13 @@
         <v>1707832</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>611</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8309,13 @@
         <v>2697221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
         <v>4043</v>
@@ -8318,13 +8324,13 @@
         <v>2776461</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M29" s="7">
         <v>6723</v>
@@ -8333,13 +8339,13 @@
         <v>5473682</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD36AD67-975B-4406-8637-EC07F0BE1E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D17C70-CB81-4A54-A4CB-BD998AC4FF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A31E0AC8-93EB-4EF5-865C-50E170646F46}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6632836-7A9A-4C67-843E-04CA9914BC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="642">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2012 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
   </si>
   <si>
     <t>25,97%</t>
@@ -692,351 +743,369 @@
     <t>77,41%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
     <t>63,72%</t>
   </si>
   <si>
@@ -1448,466 +1517,454 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD201AFE-60E6-4E1F-A876-50087548A47E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6B00B6-A36F-451D-ACDD-E38141EF4616}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3731,7 +3788,7 @@
         <v>2664</v>
       </c>
       <c r="D29" s="7">
-        <v>2715312</v>
+        <v>2715313</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>169</v>
@@ -3761,7 +3818,7 @@
         <v>5157</v>
       </c>
       <c r="N29" s="7">
-        <v>5269561</v>
+        <v>5269560</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>175</v>
@@ -3782,7 +3839,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275658</v>
+        <v>3275659</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3812,7 +3869,7 @@
         <v>6509</v>
       </c>
       <c r="N30" s="7">
-        <v>6653916</v>
+        <v>6653915</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6364D14-616D-40B5-959F-1719C99D4A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574D817E-1B4A-4060-91DB-A03B7E3E95D4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,43 +4025,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="D4" s="7">
+        <v>101010</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I4" s="7">
+        <v>110764</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="N4" s="7">
+        <v>211774</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4076,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>184</v>
+      </c>
+      <c r="D5" s="7">
+        <v>193001</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="I5" s="7">
+        <v>175303</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>340</v>
+      </c>
+      <c r="N5" s="7">
+        <v>368304</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4127,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294011</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I6" s="7">
+        <v>286067</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>536</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580078</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4186,13 @@
         <v>131306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -4126,13 +4201,13 @@
         <v>199201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>308</v>
@@ -4141,13 +4216,13 @@
         <v>330508</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4237,13 @@
         <v>374221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -4177,13 +4252,13 @@
         <v>324564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>644</v>
@@ -4192,13 +4267,13 @@
         <v>698784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4341,13 @@
         <v>76522</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4281,13 +4356,13 @@
         <v>96258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4296,13 +4371,13 @@
         <v>172780</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4392,13 @@
         <v>247524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4332,13 +4407,13 @@
         <v>244762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -4347,13 +4422,13 @@
         <v>492286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,49 +4490,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>181572</v>
+        <v>80562</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>215431</v>
+        <v>104667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>369</v>
+        <v>173</v>
       </c>
       <c r="N13" s="7">
-        <v>397002</v>
+        <v>185228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4541,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>455</v>
+        <v>271</v>
       </c>
       <c r="D14" s="7">
-        <v>486421</v>
+        <v>293420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>458628</v>
+        <v>283325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>881</v>
+        <v>541</v>
       </c>
       <c r="N14" s="7">
-        <v>945050</v>
+        <v>576746</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4592,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>625</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>667993</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4607,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>625</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>674059</v>
+        <v>387992</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4622,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1250</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1342052</v>
+        <v>761974</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4576,13 +4651,13 @@
         <v>36867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4591,13 +4666,13 @@
         <v>78914</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4606,13 +4681,13 @@
         <v>115781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4702,13 @@
         <v>175751</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4642,13 +4717,13 @@
         <v>140677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>296</v>
@@ -4657,13 +4732,13 @@
         <v>316428</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4806,13 @@
         <v>64279</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -4746,13 +4821,13 @@
         <v>96148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>152</v>
@@ -4761,13 +4836,13 @@
         <v>160428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4857,13 @@
         <v>209702</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -4797,13 +4872,13 @@
         <v>183883</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -4812,13 +4887,13 @@
         <v>393584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4961,13 @@
         <v>146687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4904,10 +4979,10 @@
         <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>311</v>
@@ -4916,13 +4991,13 @@
         <v>333618</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +5012,13 @@
         <v>516101</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>462</v>
@@ -4955,10 +5030,10 @@
         <v>98</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>943</v>
@@ -4967,13 +5042,13 @@
         <v>1023023</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5116,13 @@
         <v>69324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -5056,13 +5131,13 @@
         <v>106589</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>154</v>
@@ -5071,13 +5146,13 @@
         <v>175913</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5167,13 @@
         <v>707820</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>662</v>
@@ -5107,13 +5182,13 @@
         <v>716295</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1317</v>
@@ -5122,13 +5197,13 @@
         <v>1424115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,28 +5271,28 @@
         <v>706558</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>979473</v>
+        <v>979472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>1571</v>
@@ -5226,13 +5301,13 @@
         <v>1686030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5322,13 @@
         <v>2717540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>2387</v>
@@ -5262,28 +5337,28 @@
         <v>2575731</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>4930</v>
       </c>
       <c r="N29" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,7 +5385,7 @@
         <v>3295</v>
       </c>
       <c r="I30" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5325,7 +5400,7 @@
         <v>6501</v>
       </c>
       <c r="N30" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5363,7 +5438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602058D8-077E-424C-A6F4-51D0D37EE7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C159440D-B874-4E8B-8F16-3FB36E686BE2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5455,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5562,13 @@
         <v>83698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>103</v>
@@ -5502,13 +5577,13 @@
         <v>104120</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
         <v>179</v>
@@ -5517,13 +5592,13 @@
         <v>187818</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5613,13 @@
         <v>210063</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
         <v>173</v>
@@ -5553,13 +5628,13 @@
         <v>182764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5568,13 +5643,13 @@
         <v>392827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5717,13 @@
         <v>83667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>102</v>
@@ -5657,13 +5732,13 @@
         <v>110000</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -5672,13 +5747,13 @@
         <v>193667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5768,13 @@
         <v>418908</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>382</v>
@@ -5708,13 +5783,13 @@
         <v>413084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>781</v>
@@ -5723,13 +5798,13 @@
         <v>831992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5872,13 @@
         <v>37265</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -5812,13 +5887,13 @@
         <v>47283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -5827,13 +5902,13 @@
         <v>84548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5923,13 @@
         <v>275849</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -5863,13 +5938,13 @@
         <v>286525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>573</v>
@@ -5878,13 +5953,13 @@
         <v>562374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +6027,13 @@
         <v>97356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5967,13 +6042,13 @@
         <v>125414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>202</v>
@@ -5982,13 +6057,13 @@
         <v>222770</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6078,13 @@
         <v>269650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -6018,13 +6093,13 @@
         <v>261869</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>507</v>
@@ -6033,13 +6108,13 @@
         <v>531519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6182,13 @@
         <v>26355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6122,13 +6197,13 @@
         <v>30534</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>58</v>
@@ -6137,13 +6212,13 @@
         <v>56889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6233,13 @@
         <v>182609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -6173,13 +6248,13 @@
         <v>187185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -6188,13 +6263,13 @@
         <v>369795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6337,13 @@
         <v>57743</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -6277,13 +6352,13 @@
         <v>76374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -6292,13 +6367,13 @@
         <v>134117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6388,13 @@
         <v>205380</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -6328,13 +6403,13 @@
         <v>196741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>393</v>
@@ -6343,13 +6418,13 @@
         <v>402121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,10 +6492,10 @@
         <v>75317</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>18</v>
@@ -6432,10 +6507,10 @@
         <v>124978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>51</v>
@@ -6447,13 +6522,13 @@
         <v>200295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6543,13 @@
         <v>581241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7">
         <v>532</v>
@@ -6483,13 +6558,13 @@
         <v>565045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>1047</v>
@@ -6498,13 +6573,13 @@
         <v>1146286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6647,13 @@
         <v>103187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="H25" s="7">
         <v>128</v>
@@ -6587,13 +6662,13 @@
         <v>142778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -6602,10 +6677,10 @@
         <v>245965</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>160</v>
@@ -6623,13 +6698,13 @@
         <v>675396</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>627</v>
@@ -6638,13 +6713,13 @@
         <v>683389</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -6653,13 +6728,13 @@
         <v>1358785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6802,13 @@
         <v>564590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>708</v>
@@ -6742,13 +6817,13 @@
         <v>761480</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="M28" s="7">
         <v>1238</v>
@@ -6757,13 +6832,13 @@
         <v>1326069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6853,13 @@
         <v>2819094</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>2625</v>
@@ -6793,28 +6868,28 @@
         <v>2776603</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>5316</v>
       </c>
       <c r="N29" s="7">
-        <v>5595699</v>
+        <v>5595698</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,7 +6931,7 @@
         <v>6554</v>
       </c>
       <c r="N30" s="7">
-        <v>6921768</v>
+        <v>6921767</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6894,7 +6969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23C9AE7-2CE8-44F3-A8CF-0DE20E6F909E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187EAB0-DC46-4219-90CD-1E3308D4C26C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7015,46 +7090,46 @@
         <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>89862</v>
+        <v>106964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
       </c>
       <c r="I4" s="7">
-        <v>106625</v>
+        <v>113473</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>310</v>
       </c>
       <c r="N4" s="7">
-        <v>196486</v>
+        <v>220436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7141,46 @@
         <v>225</v>
       </c>
       <c r="D5" s="7">
-        <v>170436</v>
+        <v>204479</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
       </c>
       <c r="I5" s="7">
-        <v>164778</v>
+        <v>176162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>559</v>
       </c>
       <c r="N5" s="7">
-        <v>335214</v>
+        <v>380641</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7192,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7207,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7222,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7170,46 +7245,46 @@
         <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>78638</v>
+        <v>78622</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>111597</v>
+        <v>103078</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>492</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
       </c>
       <c r="N7" s="7">
-        <v>190235</v>
+        <v>181700</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,46 +7296,46 @@
         <v>321</v>
       </c>
       <c r="D8" s="7">
-        <v>440659</v>
+        <v>439768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
       </c>
       <c r="I8" s="7">
-        <v>442026</v>
+        <v>411015</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
       </c>
       <c r="N8" s="7">
-        <v>882685</v>
+        <v>850783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7347,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7362,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553623</v>
+        <v>514093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7377,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1072920</v>
+        <v>1032483</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7325,46 +7400,46 @@
         <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>73481</v>
+        <v>71809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
       </c>
       <c r="I10" s="7">
-        <v>120041</v>
+        <v>112167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>254</v>
       </c>
       <c r="N10" s="7">
-        <v>193523</v>
+        <v>183976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7451,46 @@
         <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>248759</v>
+        <v>244241</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="H11" s="7">
         <v>369</v>
       </c>
       <c r="I11" s="7">
-        <v>252639</v>
+        <v>236415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>501397</v>
+        <v>480656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7502,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7517,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372680</v>
+        <v>348582</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7532,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694920</v>
+        <v>664632</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7480,46 +7555,46 @@
         <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>79725</v>
+        <v>76327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
       </c>
       <c r="I13" s="7">
-        <v>100599</v>
+        <v>92154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>547</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
       </c>
       <c r="N13" s="7">
-        <v>180324</v>
+        <v>168481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7606,46 @@
         <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>240576</v>
+        <v>234476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="H14" s="7">
         <v>460</v>
       </c>
       <c r="I14" s="7">
-        <v>327957</v>
+        <v>383564</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>555</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="M14" s="7">
         <v>689</v>
       </c>
       <c r="N14" s="7">
-        <v>568533</v>
+        <v>618040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7657,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>320301</v>
+        <v>310803</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7672,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7687,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>748857</v>
+        <v>786521</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,46 +7710,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>19226</v>
+        <v>17208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>11144</v>
+        <v>10092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
       </c>
       <c r="N16" s="7">
-        <v>30370</v>
+        <v>27300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,46 +7761,46 @@
         <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>177522</v>
+        <v>161534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>468</v>
       </c>
       <c r="I17" s="7">
-        <v>220759</v>
+        <v>198564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>724</v>
       </c>
       <c r="N17" s="7">
-        <v>398281</v>
+        <v>360098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7812,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7827,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7842,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,46 +7865,46 @@
         <v>101</v>
       </c>
       <c r="D19" s="7">
-        <v>71152</v>
+        <v>68786</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="H19" s="7">
         <v>142</v>
       </c>
       <c r="I19" s="7">
-        <v>81630</v>
+        <v>75774</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
       </c>
       <c r="N19" s="7">
-        <v>152782</v>
+        <v>144560</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,46 +7916,46 @@
         <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>206071</v>
+        <v>200850</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
       </c>
       <c r="I20" s="7">
-        <v>193992</v>
+        <v>181282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="M20" s="7">
         <v>588</v>
       </c>
       <c r="N20" s="7">
-        <v>400063</v>
+        <v>382132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7967,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +7982,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +7997,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,46 +8020,46 @@
         <v>157</v>
       </c>
       <c r="D22" s="7">
-        <v>168247</v>
+        <v>167436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
       </c>
       <c r="I22" s="7">
-        <v>353585</v>
+        <v>428512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>485</v>
       </c>
       <c r="N22" s="7">
-        <v>521832</v>
+        <v>595948</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,46 +8071,46 @@
         <v>442</v>
       </c>
       <c r="D23" s="7">
-        <v>459507</v>
+        <v>456843</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>594</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>628</v>
       </c>
       <c r="I23" s="7">
-        <v>445814</v>
+        <v>416578</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="M23" s="7">
         <v>1070</v>
       </c>
       <c r="N23" s="7">
-        <v>905321</v>
+        <v>873421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8122,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8137,7 @@
         <v>956</v>
       </c>
       <c r="I24" s="7">
-        <v>799399</v>
+        <v>845090</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8152,7 @@
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1427153</v>
+        <v>1469369</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8100,46 +8175,46 @@
         <v>97</v>
       </c>
       <c r="D25" s="7">
-        <v>105738</v>
+        <v>89772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
       </c>
       <c r="I25" s="7">
-        <v>136542</v>
+        <v>111238</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="M25" s="7">
         <v>259</v>
       </c>
       <c r="N25" s="7">
-        <v>242280</v>
+        <v>201010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +8226,46 @@
         <v>665</v>
       </c>
       <c r="D26" s="7">
-        <v>753690</v>
+        <v>838948</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="H26" s="7">
         <v>898</v>
       </c>
       <c r="I26" s="7">
-        <v>728496</v>
+        <v>603623</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="M26" s="7">
         <v>1563</v>
       </c>
       <c r="N26" s="7">
-        <v>1482186</v>
+        <v>1442572</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8277,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8292,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865038</v>
+        <v>714861</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8307,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724466</v>
+        <v>1643582</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8255,46 +8330,46 @@
         <v>695</v>
       </c>
       <c r="D28" s="7">
-        <v>686068</v>
+        <v>676924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>393</v>
+        <v>627</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>610</v>
+        <v>394</v>
       </c>
       <c r="H28" s="7">
         <v>1313</v>
       </c>
       <c r="I28" s="7">
-        <v>1021764</v>
+        <v>1046486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="M28" s="7">
         <v>2008</v>
       </c>
       <c r="N28" s="7">
-        <v>1707832</v>
+        <v>1723411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>129</v>
+        <v>632</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,46 +8381,46 @@
         <v>2680</v>
       </c>
       <c r="D29" s="7">
-        <v>2697221</v>
+        <v>2781140</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>617</v>
+        <v>404</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>635</v>
       </c>
       <c r="H29" s="7">
         <v>4043</v>
       </c>
       <c r="I29" s="7">
-        <v>2776461</v>
+        <v>2607205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>6723</v>
       </c>
       <c r="N29" s="7">
-        <v>5473682</v>
+        <v>5388344</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8432,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3383289</v>
+        <v>3458064</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8447,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3798225</v>
+        <v>3653691</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8462,7 @@
         <v>8731</v>
       </c>
       <c r="N30" s="7">
-        <v>7181514</v>
+        <v>7111755</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
